--- a/biology/Histoire de la zoologie et de la botanique/Oliver_Perry_Hay/Oliver_Perry_Hay.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Oliver_Perry_Hay/Oliver_Perry_Hay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oliver Perry Hay est un paléontologue américain, né le 22 mai 1846 à Saluda (Indiana) et mort le 2 novembre 1930 (à 84 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Robert Hay et de Margaret née Crawford. Il obtient son Bachelor of Arts à Eureka (Illinois) en 1870, son Master of Arts en 1873. Il étudie à Yale de 1876 à 1877 et obtient son doctorat à l’université de l’Indiana en 1884.
 Il se marie avec Mary Emily Howsmon le 30 juin 1870, union dont naîtront quatre enfants dont le carcinologiste William Perry Hay (1872-1947).
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
